--- a/outputs/xlsx/members.xlsx
+++ b/outputs/xlsx/members.xlsx
@@ -2176,14 +2176,10 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(&lt;CustomActivity name='je c pas quoi mettre' emoji=None&gt;,)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>je c pas quoi mettre</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>f78134c2e57e7fcdb85c4ba5ed7648f3</t>
@@ -2222,7 +2218,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2288,7 +2284,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr"/>
@@ -2299,7 +2295,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF13" t="b">
@@ -2883,14 +2879,10 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='1967 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;,)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='1967 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>becf96e5bfc3979088f983aaf1bc3ba2</t>
@@ -3455,10 +3447,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>()</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>(&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Minecraft - AZ Launcher' url=None details='In the menu' application_id=446678719294210049 session_id=None emoji=None&gt;,)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Minecraft - AZ Launcher' url=None details='In the menu' application_id=446678719294210049 session_id=None emoji=None&gt;</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>c2be3540ad8ca71c775a8167a9f24378</t>
@@ -3497,7 +3493,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3534,7 +3530,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -3563,7 +3559,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
@@ -3574,7 +3570,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="AF22" t="b">
@@ -9538,7 +9534,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -9604,7 +9600,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr"/>
@@ -9615,7 +9611,7 @@
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AF65" t="b">
@@ -11786,7 +11782,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -11852,7 +11848,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr"/>
@@ -11863,7 +11859,7 @@
       </c>
       <c r="AE81" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF81" t="b">
@@ -12526,7 +12522,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -12555,7 +12551,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr"/>
@@ -12566,7 +12562,7 @@
       </c>
       <c r="AE86" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF86" t="b">
@@ -14084,7 +14080,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=787633590095314974 name='CaniFriend - Rennes' shard_id=None chunked=True member_count=9&gt;, &lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;, &lt;Guild id=818580901919195197 name='Serveur de Cédric' shard_id=None chunked=True member_count=4&gt;]</t>
+          <t>[&lt;Guild id=787633590095314974 name='CaniFriend - Rennes' shard_id=None chunked=True member_count=9&gt;, &lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;, &lt;Guild id=818580901919195197 name='Serveur de Cédric' shard_id=None chunked=True member_count=5&gt;]</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
@@ -14185,7 +14181,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -14247,7 +14243,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr"/>
@@ -14258,7 +14254,7 @@
       </c>
       <c r="AE98" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AF98" t="b">
@@ -14872,7 +14868,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>idle</t>
+          <t>online</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -14934,7 +14930,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>idle</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC103" t="inlineStr"/>
@@ -14945,7 +14941,7 @@
       </c>
       <c r="AE103" t="inlineStr">
         <is>
-          <t>idle</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AF103" t="b">
@@ -14969,14 +14965,10 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>(&lt;CustomActivity name='"j’aimerais que tout le monde...même les faibles...soient considerer comme des humains" Annie Leonhart' emoji=None&gt;, &lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Osmoze RP' url=None details='Osmoze |  V4  | Discord : discord.gg/wbQ9Kp5 ' application_id=733675027324469348 session_id=None emoji=None&gt;)</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>"j’aimerais que tout le monde...même les faibles...soient considerer comme des humains" Annie Leonhart</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
           <t>69b34c9373ea9cd7bc5735d6ab6d00df</t>
@@ -15015,7 +15007,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -15081,7 +15073,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr"/>
@@ -15092,7 +15084,7 @@
       </c>
       <c r="AE104" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF104" t="b">
@@ -18206,14 +18198,10 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>(&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='MTGArena' url=None details=None application_id=505142532297064468 session_id=None emoji=None&gt;,)</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='MTGArena' url=None details=None application_id=505142532297064468 session_id=None emoji=None&gt;</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
           <t>c37e45845b813edc5b6e9e39eede863a</t>
@@ -18252,7 +18240,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -18318,7 +18306,7 @@
       </c>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr"/>
@@ -18329,7 +18317,7 @@
       </c>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF127" t="b">
@@ -18774,11 +18762,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>(&lt;Game name='=help: 16403 servers'&gt;,)</t>
+          <t>(&lt;Game name='=help: 16423 servers'&gt;,)</t>
         </is>
       </c>
       <c r="C131">
-        <f>help: 16403 servers</f>
+        <f>help: 16423 servers</f>
         <v/>
       </c>
       <c r="D131" t="inlineStr">
@@ -19278,7 +19266,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=787633590095314974 name='CaniFriend - Rennes' shard_id=None chunked=True member_count=9&gt;, &lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;, &lt;Guild id=818580901919195197 name='Serveur de Cédric' shard_id=None chunked=True member_count=4&gt;]</t>
+          <t>[&lt;Guild id=787633590095314974 name='CaniFriend - Rennes' shard_id=None chunked=True member_count=9&gt;, &lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;, &lt;Guild id=818580901919195197 name='Serveur de Cédric' shard_id=None chunked=True member_count=5&gt;]</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
@@ -20858,10 +20846,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>()</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
+          <t>(&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Fortnite' url=None details='Battle Royale - In Lobby' application_id=432980957394370572 session_id='9661cbdd7db3be932806466579073438' emoji=None&gt;,)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Fortnite' url=None details='Battle Royale - In Lobby' application_id=432980957394370572 session_id='9661cbdd7db3be932806466579073438' emoji=None&gt;</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
@@ -20896,7 +20888,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -20962,7 +20954,7 @@
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="AC146" t="inlineStr"/>
@@ -20973,7 +20965,7 @@
       </c>
       <c r="AE146" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="AF146" t="b">

--- a/outputs/xlsx/members.xlsx
+++ b/outputs/xlsx/members.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI149"/>
+  <dimension ref="A1:AI150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,7 +699,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2879,10 +2879,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>()</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>(&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='1973 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;,)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='1973 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>becf96e5bfc3979088f983aaf1bc3ba2</t>
@@ -2963,7 +2967,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -3106,7 +3110,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -3249,7 +3253,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -3388,7 +3392,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -3447,14 +3451,10 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Minecraft - AZ Launcher' url=None details='In the menu' application_id=446678719294210049 session_id=None emoji=None&gt;,)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Minecraft - AZ Launcher' url=None details='In the menu' application_id=446678719294210049 session_id=None emoji=None&gt;</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
           <t>c2be3540ad8ca71c775a8167a9f24378</t>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3530,12 +3530,12 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF22" t="b">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -9294,7 +9294,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -9534,7 +9534,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr"/>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF65" t="b">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -9862,7 +9862,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -10005,12 +10005,12 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Le P'tit Beurre Fou 🔭</t>
+          <t>Le P'tit Beurre Fou</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -10422,7 +10422,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
@@ -11407,7 +11407,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
@@ -11824,7 +11824,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
@@ -11967,7 +11967,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
@@ -12106,7 +12106,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
@@ -12944,7 +12944,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -13087,7 +13087,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
@@ -13373,7 +13373,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
@@ -13655,7 +13655,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
@@ -13937,7 +13937,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
@@ -14080,7 +14080,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=787633590095314974 name='CaniFriend - Rennes' shard_id=None chunked=True member_count=9&gt;, &lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;, &lt;Guild id=818580901919195197 name='Serveur de Cédric' shard_id=None chunked=True member_count=5&gt;]</t>
+          <t>[&lt;Guild id=787633590095314974 name='CaniFriend - Rennes' shard_id=None chunked=True member_count=9&gt;, &lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;, &lt;Guild id=818580901919195197 name='Serveur de Cédric' shard_id=None chunked=True member_count=5&gt;]</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>idle</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -14223,7 +14223,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>idle</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr"/>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="AE98" t="inlineStr">
         <is>
-          <t>idle</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF98" t="b">
@@ -14285,7 +14285,7 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -14293,25 +14293,25 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I99" s="2" t="n">
-        <v>44281.3347844213</v>
+        <v>44261.32916168981</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -14321,12 +14321,12 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>8474</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Patou - Pornic (44)</t>
+          <t>Sandrine - Rennes (35)</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -14341,14 +14341,14 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>8.249161039183872e+17</v>
+        <v>8.176663089964646e+17</v>
       </c>
       <c r="S99" s="2" t="n">
-        <v>44281.33757590175</v>
+        <v>44303.43301719373</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>&lt;@!824916103918387223&gt;</t>
+          <t>&lt;@!817666308996464640&gt;</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
@@ -14358,17 +14358,17 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>Patou</t>
+          <t>Sandrine CJ Rennes</t>
         </is>
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>Patou - Pornic (44)</t>
+          <t>Sandrine - Rennes (35)</t>
         </is>
       </c>
       <c r="Y99" t="b">
@@ -14388,7 +14388,7 @@
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046357241790498 name='Club Jeunes de Pornic'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AE99" t="inlineStr">
@@ -14401,7 +14401,7 @@
       </c>
       <c r="AG99" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AH99" t="inlineStr"/>
@@ -14424,7 +14424,7 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="F100" t="b">
@@ -14432,25 +14432,25 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>#70c14a</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>#70c14a</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I100" s="2" t="n">
-        <v>44261.37843839121</v>
+        <v>44281.3347844213</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -14460,12 +14460,12 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2933</t>
+          <t>8474</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Jean - Vallérargues (30)</t>
+          <t>Patou - Pornic (44)</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -14476,18 +14476,18 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=6546775617&gt;</t>
+          <t>&lt;Permissions value=6546775616&gt;</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>8.176841662748426e+17</v>
+        <v>8.249161039183872e+17</v>
       </c>
       <c r="S100" s="2" t="n">
-        <v>44261.37866695602</v>
+        <v>44281.33757590175</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>&lt;@!817684166274842654&gt;</t>
+          <t>&lt;@!824916103918387223&gt;</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
@@ -14497,17 +14497,17 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Jean DUQUESNOIS</t>
+          <t>Patou</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>Jean - Vallérargues (30)</t>
+          <t>Patou - Pornic (44)</t>
         </is>
       </c>
       <c r="Y100" t="b">
@@ -14527,7 +14527,7 @@
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046720276103169 name='Club Jeunes de Vallérargues'&gt;, &lt;Role id=819885446788153344 name='Responsables de refuge'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046357241790498 name='Club Jeunes de Pornic'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AE100" t="inlineStr">
@@ -14540,7 +14540,7 @@
       </c>
       <c r="AG100" t="inlineStr">
         <is>
-          <t>Responsables de refuge</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AH100" t="inlineStr"/>
@@ -14563,7 +14563,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -14571,25 +14571,25 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#70c14a</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#70c14a</t>
         </is>
       </c>
       <c r="I101" s="2" t="n">
-        <v>44272.5318927662</v>
+        <v>44261.37843839121</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -14599,12 +14599,12 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0191</t>
+          <t>2933</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Valérie - Poulainville (80)</t>
+          <t>Jean - Vallérargues (30)</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -14615,18 +14615,18 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=6546775616&gt;</t>
+          <t>&lt;Permissions value=6546775617&gt;</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>8.217260428003901e+17</v>
+        <v>8.176841662748426e+17</v>
       </c>
       <c r="S101" s="2" t="n">
-        <v>44272.53237288303</v>
+        <v>44261.37866695602</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>&lt;@!821726042800390154&gt;</t>
+          <t>&lt;@!817684166274842654&gt;</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
@@ -14636,17 +14636,17 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>Valérie CJ Poulainville</t>
+          <t>Jean DUQUESNOIS</t>
         </is>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>Valérie - Poulainville (80)</t>
+          <t>Jean - Vallérargues (30)</t>
         </is>
       </c>
       <c r="Y101" t="b">
@@ -14666,7 +14666,7 @@
       <c r="AC101" t="inlineStr"/>
       <c r="AD101" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045767858585652 name='Club Jeunes de Poulainville'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046720276103169 name='Club Jeunes de Vallérargues'&gt;, &lt;Role id=819885446788153344 name='Responsables de refuge'&gt;]</t>
         </is>
       </c>
       <c r="AE101" t="inlineStr">
@@ -14679,7 +14679,7 @@
       </c>
       <c r="AG101" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Responsables de refuge</t>
         </is>
       </c>
       <c r="AH101" t="inlineStr"/>
@@ -14702,7 +14702,7 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -14710,25 +14710,25 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I102" s="2" t="n">
-        <v>44149.81293336806</v>
+        <v>44272.5318927662</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -14738,12 +14738,12 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>0191</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Candice</t>
+          <t>Valérie - Poulainville (80)</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -14758,14 +14758,14 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>7.772541810349179e+17</v>
+        <v>8.217260428003901e+17</v>
       </c>
       <c r="S102" s="2" t="n">
-        <v>44265.78161284722</v>
+        <v>44272.53237288303</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>&lt;@777254181034917928&gt;</t>
+          <t>&lt;@!821726042800390154&gt;</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
@@ -14775,15 +14775,19 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>Candice</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr"/>
+          <t>Valérie CJ Poulainville</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>Valérie - Poulainville (80)</t>
+        </is>
+      </c>
       <c r="Y102" t="b">
         <v>0</v>
       </c>
@@ -14801,7 +14805,7 @@
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045767858585652 name='Club Jeunes de Poulainville'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE102" t="inlineStr">
@@ -14814,7 +14818,7 @@
       </c>
       <c r="AG102" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH102" t="inlineStr"/>
@@ -14837,7 +14841,7 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -14854,31 +14858,31 @@
         </is>
       </c>
       <c r="I103" s="2" t="n">
-        <v>44277.49384787037</v>
+        <v>44149.81293336806</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>8874</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>Candice</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -14893,14 +14897,14 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>8.235241951197921e+17</v>
+        <v>7.772541810349179e+17</v>
       </c>
       <c r="S103" s="2" t="n">
-        <v>44277.54837401242</v>
+        <v>44265.78161284722</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>&lt;@823524195119792158&gt;</t>
+          <t>&lt;@777254181034917928&gt;</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
@@ -14910,12 +14914,12 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>Candice</t>
         </is>
       </c>
       <c r="X103" t="inlineStr"/>
@@ -14930,7 +14934,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC103" t="inlineStr"/>
@@ -14941,7 +14945,7 @@
       </c>
       <c r="AE103" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF103" t="b">
@@ -14969,14 +14973,10 @@
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>69b34c9373ea9cd7bc5735d6ab6d00df</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/554701108786888754/69b34c9373ea9cd7bc5735d6ab6d00df.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -14984,25 +14984,25 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I104" s="2" t="n">
-        <v>43535.68345119213</v>
+        <v>44277.49384787037</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -15012,12 +15012,12 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>9391</t>
+          <t>8874</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Ines - Yvré l'Évêque (72)</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -15032,14 +15032,14 @@
         </is>
       </c>
       <c r="R104" t="n">
-        <v>5.547011087868888e+17</v>
+        <v>8.235241951197921e+17</v>
       </c>
       <c r="S104" s="2" t="n">
-        <v>44281.91372943731</v>
+        <v>44277.54837401242</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>&lt;@!554701108786888754&gt;</t>
+          <t>&lt;@823524195119792158&gt;</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
@@ -15049,19 +15049,15 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>ness</t>
-        </is>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>Ines - Yvré l'Évêque (72)</t>
-        </is>
-      </c>
+          <t>PPM</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr"/>
       <c r="Y104" t="b">
         <v>0</v>
       </c>
@@ -15079,7 +15075,7 @@
       <c r="AC104" t="inlineStr"/>
       <c r="AD104" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046088575909898 name="Club Jeunes d'Yvré-l'Evêque"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AE104" t="inlineStr">
@@ -15092,7 +15088,7 @@
       </c>
       <c r="AG104" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AH104" t="inlineStr"/>
@@ -15114,12 +15110,12 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6fb2f8b0d4cc598a15b7334c14321b52</t>
+          <t>b4058052db07f892f1e225e7f9971a86</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/819231783635648543/6fb2f8b0d4cc598a15b7334c14321b52.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/554701108786888754/b4058052db07f892f1e225e7f9971a86.webp?size=1024</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -15127,25 +15123,25 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I105" s="2" t="n">
-        <v>44265.64904871528</v>
+        <v>43535.68345119213</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -15155,12 +15151,12 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>9391</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Imogen - Briançon (05)</t>
+          <t>Ines - Yvré l'Évêque (72)</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -15175,14 +15171,14 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>8.192317836356485e+17</v>
+        <v>5.547011087868888e+17</v>
       </c>
       <c r="S105" s="2" t="n">
-        <v>44265.65147925926</v>
+        <v>44281.91372943731</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>&lt;@!819231783635648543&gt;</t>
+          <t>&lt;@!554701108786888754&gt;</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
@@ -15192,17 +15188,17 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>imogen CJ de briancon</t>
+          <t>ness</t>
         </is>
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>Imogen - Briançon (05)</t>
+          <t>Ines - Yvré l'Évêque (72)</t>
         </is>
       </c>
       <c r="Y105" t="b">
@@ -15222,7 +15218,7 @@
       <c r="AC105" t="inlineStr"/>
       <c r="AD105" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046807794319440 name='Club Jeunes de Briançon'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046088575909898 name="Club Jeunes d'Yvré-l'Evêque"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE105" t="inlineStr">
@@ -15235,7 +15231,7 @@
       </c>
       <c r="AG105" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH105" t="inlineStr"/>
@@ -15257,12 +15253,12 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5c6f5da776b551d78970947dcc1bfaca</t>
+          <t>6fb2f8b0d4cc598a15b7334c14321b52</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/743880812981911563/5c6f5da776b551d78970947dcc1bfaca.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/819231783635648543/6fb2f8b0d4cc598a15b7334c14321b52.webp?size=1024</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -15270,25 +15266,25 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I106" s="2" t="n">
-        <v>44057.71998208333</v>
+        <v>44265.64904871528</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -15298,12 +15294,12 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Lilie - Saint-Omer (62)</t>
+          <t>Imogen - Briançon (05)</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -15318,14 +15314,14 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>7.438808129819116e+17</v>
+        <v>8.192317836356485e+17</v>
       </c>
       <c r="S106" s="2" t="n">
-        <v>44269.71359259686</v>
+        <v>44265.65147925926</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>&lt;@!743880812981911563&gt;</t>
+          <t>&lt;@!819231783635648543&gt;</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
@@ -15335,17 +15331,17 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>lilie CJ Saint omer</t>
+          <t>imogen CJ de briancon</t>
         </is>
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>Lilie - Saint-Omer (62)</t>
+          <t>Imogen - Briançon (05)</t>
         </is>
       </c>
       <c r="Y106" t="b">
@@ -15365,7 +15361,7 @@
       <c r="AC106" t="inlineStr"/>
       <c r="AD106" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045351683096587 name='Club Jeunes de Saint-Omer'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046807794319440 name='Club Jeunes de Briançon'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AE106" t="inlineStr">
@@ -15378,7 +15374,7 @@
       </c>
       <c r="AG106" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AH106" t="inlineStr"/>
@@ -15400,12 +15396,12 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>c6d40d06221ada67aaf7c122d08eda2e</t>
+          <t>5c6f5da776b551d78970947dcc1bfaca</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/688447791437054061/c6d40d06221ada67aaf7c122d08eda2e.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/743880812981911563/5c6f5da776b551d78970947dcc1bfaca.webp?size=1024</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -15422,16 +15418,16 @@
         </is>
       </c>
       <c r="I107" s="2" t="n">
-        <v>43904.75398402778</v>
+        <v>44057.71998208333</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -15441,12 +15437,12 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>6573</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Manon - SPDM (40)</t>
+          <t>Lilie - Saint-Omer (62)</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -15461,14 +15457,14 @@
         </is>
       </c>
       <c r="R107" t="n">
-        <v>6.884477914370541e+17</v>
+        <v>7.438808129819116e+17</v>
       </c>
       <c r="S107" s="2" t="n">
-        <v>44286.66035078582</v>
+        <v>44269.71359259686</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>&lt;@!688447791437054061&gt;</t>
+          <t>&lt;@!743880812981911563&gt;</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
@@ -15478,17 +15474,17 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>Manon Ricaud</t>
+          <t>lilie CJ Saint omer</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>Manon - SPDM (40)</t>
+          <t>Lilie - Saint-Omer (62)</t>
         </is>
       </c>
       <c r="Y107" t="b">
@@ -15508,7 +15504,7 @@
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045351683096587 name='Club Jeunes de Saint-Omer'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE107" t="inlineStr">
@@ -15543,12 +15539,12 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>d539b063d2f85bd04b7449c733628510</t>
+          <t>c6d40d06221ada67aaf7c122d08eda2e</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/649282683255521305/d539b063d2f85bd04b7449c733628510.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/688447791437054061/c6d40d06221ada67aaf7c122d08eda2e.webp?size=1024</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -15565,16 +15561,16 @@
         </is>
       </c>
       <c r="I108" s="2" t="n">
-        <v>43796.6788747338</v>
+        <v>43904.75398402778</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -15584,12 +15580,12 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>6573</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Anaïs - SPDM (40)</t>
+          <t>Manon - SPDM (40)</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -15604,14 +15600,14 @@
         </is>
       </c>
       <c r="R108" t="n">
-        <v>6.492826832555213e+17</v>
+        <v>6.884477914370541e+17</v>
       </c>
       <c r="S108" s="2" t="n">
-        <v>44244.51630609954</v>
+        <v>44286.66035078582</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>&lt;@!649282683255521305&gt;</t>
+          <t>&lt;@!688447791437054061&gt;</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
@@ -15621,17 +15617,17 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>Anaïs CJ de Saint Pierre du Mont</t>
+          <t>Manon Ricaud</t>
         </is>
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>Anaïs - SPDM (40)</t>
+          <t>Manon - SPDM (40)</t>
         </is>
       </c>
       <c r="Y108" t="b">
@@ -15684,10 +15680,14 @@
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>d539b063d2f85bd04b7449c733628510</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/avatars/649282683255521305/d539b063d2f85bd04b7449c733628510.webp?size=1024</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -15695,25 +15695,25 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I109" s="2" t="n">
-        <v>44284.82584203704</v>
+        <v>43796.6788747338</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -15723,12 +15723,12 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>3930</t>
+          <t>1284</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Klervia</t>
+          <t>Anaïs - SPDM (40)</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -15743,14 +15743,14 @@
         </is>
       </c>
       <c r="R109" t="n">
-        <v>8.261812208367043e+17</v>
+        <v>6.492826832555213e+17</v>
       </c>
       <c r="S109" s="2" t="n">
-        <v>44284.82640791775</v>
+        <v>44244.51630609954</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>&lt;@826181220836704286&gt;</t>
+          <t>&lt;@!649282683255521305&gt;</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
@@ -15760,15 +15760,19 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>Klervia</t>
-        </is>
-      </c>
-      <c r="X109" t="inlineStr"/>
+          <t>Anaïs CJ de Saint Pierre du Mont</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>Anaïs - SPDM (40)</t>
+        </is>
+      </c>
       <c r="Y109" t="b">
         <v>0</v>
       </c>
@@ -15786,7 +15790,7 @@
       <c r="AC109" t="inlineStr"/>
       <c r="AD109" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE109" t="inlineStr">
@@ -15799,7 +15803,7 @@
       </c>
       <c r="AG109" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH109" t="inlineStr"/>
@@ -15819,14 +15823,10 @@
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>c3fd22d647a78b11c110552daa2e8e2e</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/811873653066301466/c3fd22d647a78b11c110552daa2e8e2e.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -15834,25 +15834,25 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I110" s="2" t="n">
-        <v>44245.34447655093</v>
+        <v>44284.82584203704</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -15862,12 +15862,12 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>Margau - Vaux-le-Pénil (77)</t>
+          <t>Klervia</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -15882,14 +15882,14 @@
         </is>
       </c>
       <c r="R110" t="n">
-        <v>8.118736530663014e+17</v>
+        <v>8.261812208367043e+17</v>
       </c>
       <c r="S110" s="2" t="n">
-        <v>44245.34526650463</v>
+        <v>44284.82640791775</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>&lt;@!811873653066301466&gt;</t>
+          <t>&lt;@826181220836704286&gt;</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">
@@ -15899,19 +15899,15 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>Margau CJ de Vaux-le-Pénil</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>Margau - Vaux-le-Pénil (77)</t>
-        </is>
-      </c>
+          <t>Klervia</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr"/>
       <c r="Y110" t="b">
         <v>0</v>
       </c>
@@ -15929,7 +15925,7 @@
       <c r="AC110" t="inlineStr"/>
       <c r="AD110" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AE110" t="inlineStr">
@@ -15942,7 +15938,7 @@
       </c>
       <c r="AG110" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AH110" t="inlineStr"/>
@@ -15962,10 +15958,14 @@
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>c3fd22d647a78b11c110552daa2e8e2e</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/avatars/811873653066301466/c3fd22d647a78b11c110552daa2e8e2e.webp?size=1024</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -15982,16 +15982,16 @@
         </is>
       </c>
       <c r="I111" s="2" t="n">
-        <v>44221.74876988426</v>
+        <v>44245.34447655093</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -16001,12 +16001,12 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>7758</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Ewen - Châteaubourg (35)</t>
+          <t>Margau - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -16021,14 +16021,14 @@
         </is>
       </c>
       <c r="R111" t="n">
-        <v>8.033228552904378e+17</v>
+        <v>8.118736530663014e+17</v>
       </c>
       <c r="S111" s="2" t="n">
-        <v>44245.52085854167</v>
+        <v>44245.34526650463</v>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>&lt;@!803322855290437703&gt;</t>
+          <t>&lt;@!811873653066301466&gt;</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
@@ -16038,17 +16038,17 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Ewen du CJ de Chateaubourg</t>
+          <t>Margau CJ de Vaux-le-Pénil</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>Ewen - Châteaubourg (35)</t>
+          <t>Margau - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="Y111" t="b">
@@ -16068,7 +16068,7 @@
       <c r="AC111" t="inlineStr"/>
       <c r="AD111" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE111" t="inlineStr">
@@ -16101,14 +16101,10 @@
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>0c5f6b00370902efcfd7cc92fbfe5613</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/818072289346191395/0c5f6b00370902efcfd7cc92fbfe5613.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -16116,25 +16112,25 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I112" s="2" t="n">
-        <v>44262.44945402778</v>
+        <v>44221.74876988426</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -16144,12 +16140,12 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>5916</t>
+          <t>7758</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Didier - Cholet (49)</t>
+          <t>Ewen - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
@@ -16164,14 +16160,14 @@
         </is>
       </c>
       <c r="R112" t="n">
-        <v>8.180722893461914e+17</v>
+        <v>8.033228552904378e+17</v>
       </c>
       <c r="S112" s="2" t="n">
-        <v>44262.45222194445</v>
+        <v>44245.52085854167</v>
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>&lt;@!818072289346191395&gt;</t>
+          <t>&lt;@!803322855290437703&gt;</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
@@ -16181,17 +16177,17 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>Trinity49</t>
+          <t>Ewen du CJ de Chateaubourg</t>
         </is>
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>Didier - Cholet (49)</t>
+          <t>Ewen - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="Y112" t="b">
@@ -16211,7 +16207,7 @@
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046315311595540 name='Club Jeunes de Cholet'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE112" t="inlineStr">
@@ -16224,7 +16220,7 @@
       </c>
       <c r="AG112" t="inlineStr">
         <is>
-          <t>Encadrants</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH112" t="inlineStr"/>
@@ -16246,12 +16242,12 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>30fcfa7e5ca487c3a7ca3ce3c450857c</t>
+          <t>0c5f6b00370902efcfd7cc92fbfe5613</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/818553720135614496/30fcfa7e5ca487c3a7ca3ce3c450857c.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/818072289346191395/0c5f6b00370902efcfd7cc92fbfe5613.webp?size=1024</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -16259,16 +16255,16 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="I113" s="2" t="n">
-        <v>44263.77794991898</v>
+        <v>44262.44945402778</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -16287,12 +16283,12 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>9861</t>
+          <t>5916</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Charlotte - Le Garric (81)</t>
+          <t>Didier - Cholet (49)</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
@@ -16307,14 +16303,14 @@
         </is>
       </c>
       <c r="R113" t="n">
-        <v>8.185537201356145e+17</v>
+        <v>8.180722893461914e+17</v>
       </c>
       <c r="S113" s="2" t="n">
-        <v>44263.81535306713</v>
+        <v>44262.45222194445</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>&lt;@!818553720135614496&gt;</t>
+          <t>&lt;@!818072289346191395&gt;</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
@@ -16324,17 +16320,17 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>Charlotte du CJ de le Garric</t>
+          <t>Trinity49</t>
         </is>
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>Charlotte - Le Garric (81)</t>
+          <t>Didier - Cholet (49)</t>
         </is>
       </c>
       <c r="Y113" t="b">
@@ -16354,7 +16350,7 @@
       <c r="AC113" t="inlineStr"/>
       <c r="AD113" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046618182156328 name='Club Jeunes de Puech de Barret - Le Garric'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046315311595540 name='Club Jeunes de Cholet'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AE113" t="inlineStr">
@@ -16367,7 +16363,7 @@
       </c>
       <c r="AG113" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Encadrants</t>
         </is>
       </c>
       <c r="AH113" t="inlineStr"/>
@@ -16387,10 +16383,14 @@
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>30fcfa7e5ca487c3a7ca3ce3c450857c</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/avatars/818553720135614496/30fcfa7e5ca487c3a7ca3ce3c450857c.webp?size=1024</t>
         </is>
       </c>
       <c r="F114" t="b">
@@ -16398,25 +16398,25 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I114" s="2" t="n">
-        <v>44244.74588240741</v>
+        <v>44263.77794991898</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -16426,12 +16426,12 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>9861</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Céline - SPDM (40)</t>
+          <t>Charlotte - Le Garric (81)</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
@@ -16446,14 +16446,14 @@
         </is>
       </c>
       <c r="R114" t="n">
-        <v>8.116567298126643e+17</v>
+        <v>8.185537201356145e+17</v>
       </c>
       <c r="S114" s="2" t="n">
-        <v>44244.74701711805</v>
+        <v>44263.81535306713</v>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>&lt;@!811656729812664370&gt;</t>
+          <t>&lt;@!818553720135614496&gt;</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
@@ -16463,17 +16463,17 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>Hugo CJ Saint Pierre du Mont</t>
+          <t>Charlotte du CJ de le Garric</t>
         </is>
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>Céline - SPDM (40)</t>
+          <t>Charlotte - Le Garric (81)</t>
         </is>
       </c>
       <c r="Y114" t="b">
@@ -16493,7 +16493,7 @@
       <c r="AC114" t="inlineStr"/>
       <c r="AD114" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046618182156328 name='Club Jeunes de Puech de Barret - Le Garric'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE114" t="inlineStr">
@@ -16506,7 +16506,7 @@
       </c>
       <c r="AG114" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH114" t="inlineStr"/>
@@ -16526,14 +16526,10 @@
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>15125e433fb9e31c3af23a8e5ae59a76</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/811723077301174363/15125e433fb9e31c3af23a8e5ae59a76.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -16541,25 +16537,25 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I115" s="2" t="n">
-        <v>44244.92896659722</v>
+        <v>44244.74588240741</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -16569,12 +16565,12 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Marine - Châteaubourg (35)</t>
+          <t>Céline - SPDM (40)</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
@@ -16589,14 +16585,14 @@
         </is>
       </c>
       <c r="R115" t="n">
-        <v>8.117230773011744e+17</v>
+        <v>8.116567298126643e+17</v>
       </c>
       <c r="S115" s="2" t="n">
-        <v>44244.92984567129</v>
+        <v>44244.74701711805</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>&lt;@!811723077301174363&gt;</t>
+          <t>&lt;@!811656729812664370&gt;</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
@@ -16606,17 +16602,17 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>Marine CJ de Chateaubourg</t>
+          <t>Hugo CJ Saint Pierre du Mont</t>
         </is>
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>Marine - Châteaubourg (35)</t>
+          <t>Céline - SPDM (40)</t>
         </is>
       </c>
       <c r="Y115" t="b">
@@ -16636,7 +16632,7 @@
       <c r="AC115" t="inlineStr"/>
       <c r="AD115" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AE115" t="inlineStr">
@@ -16649,7 +16645,7 @@
       </c>
       <c r="AG115" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AH115" t="inlineStr"/>
@@ -16669,10 +16665,14 @@
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>15125e433fb9e31c3af23a8e5ae59a76</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/avatars/811723077301174363/15125e433fb9e31c3af23a8e5ae59a76.webp?size=1024</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -16689,16 +16689,16 @@
         </is>
       </c>
       <c r="I116" s="2" t="n">
-        <v>43983.57258805555</v>
+        <v>44244.92896659722</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -16708,12 +16708,12 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>5414</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Manon - Orgeval (78)</t>
+          <t>Marine - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
@@ -16728,14 +16728,14 @@
         </is>
       </c>
       <c r="R116" t="n">
-        <v>7.170106971201208e+17</v>
+        <v>8.117230773011744e+17</v>
       </c>
       <c r="S116" s="2" t="n">
-        <v>44246.52039186343</v>
+        <v>44244.92984567129</v>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>&lt;@!717010697120120862&gt;</t>
+          <t>&lt;@!811723077301174363&gt;</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
@@ -16745,17 +16745,17 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>Manon CJ orgeval</t>
+          <t>Marine CJ de Chateaubourg</t>
         </is>
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>Manon - Orgeval (78)</t>
+          <t>Marine - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="Y116" t="b">
@@ -16775,7 +16775,7 @@
       <c r="AC116" t="inlineStr"/>
       <c r="AD116" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045727429296128 name="Club Jeunes d'Orgeval"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE116" t="inlineStr">
@@ -16811,7 +16811,7 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -16819,25 +16819,25 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I117" s="2" t="n">
-        <v>44260.78202319444</v>
+        <v>43983.57258805555</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -16847,12 +16847,12 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>9993</t>
+          <t>5414</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Maria - La Roche-sur-Yon (85)</t>
+          <t>Manon - Orgeval (78)</t>
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
@@ -16867,14 +16867,14 @@
         </is>
       </c>
       <c r="R117" t="n">
-        <v>8.174680326450708e+17</v>
+        <v>7.170106971201208e+17</v>
       </c>
       <c r="S117" s="2" t="n">
-        <v>44260.84910686342</v>
+        <v>44246.52039186343</v>
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>&lt;@!817468032645070909&gt;</t>
+          <t>&lt;@!717010697120120862&gt;</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
@@ -16884,17 +16884,17 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>MariaF</t>
+          <t>Manon CJ orgeval</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>Maria - La Roche-sur-Yon (85)</t>
+          <t>Manon - Orgeval (78)</t>
         </is>
       </c>
       <c r="Y117" t="b">
@@ -16914,7 +16914,7 @@
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046430646435851 name='Club Jeunes de la Roche-sur-Yon'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045727429296128 name="Club Jeunes d'Orgeval"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE117" t="inlineStr">
@@ -16927,7 +16927,7 @@
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH117" t="inlineStr"/>
@@ -16950,7 +16950,7 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -16958,25 +16958,25 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I118" s="2" t="n">
-        <v>44269.66674922454</v>
+        <v>44260.78202319444</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -16986,12 +16986,12 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>8670</t>
+          <t>9993</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>zines</t>
+          <t>Maria - La Roche-sur-Yon (85)</t>
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
@@ -17006,14 +17006,14 @@
         </is>
       </c>
       <c r="R118" t="n">
-        <v>8.206877495469015e+17</v>
+        <v>8.174680326450708e+17</v>
       </c>
       <c r="S118" s="2" t="n">
-        <v>44281.9099977053</v>
+        <v>44260.84910686342</v>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>&lt;@820687749546901539&gt;</t>
+          <t>&lt;@!817468032645070909&gt;</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
@@ -17023,15 +17023,19 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>zines</t>
-        </is>
-      </c>
-      <c r="X118" t="inlineStr"/>
+          <t>MariaF</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>Maria - La Roche-sur-Yon (85)</t>
+        </is>
+      </c>
       <c r="Y118" t="b">
         <v>0</v>
       </c>
@@ -17049,7 +17053,7 @@
       <c r="AC118" t="inlineStr"/>
       <c r="AD118" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046430646435851 name='Club Jeunes de la Roche-sur-Yon'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AE118" t="inlineStr">
@@ -17062,7 +17066,7 @@
       </c>
       <c r="AG118" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AH118" t="inlineStr"/>
@@ -17082,14 +17086,10 @@
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>d37e9a937adf3797df492262527f8d60</t>
-        </is>
-      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/387907535019048961/d37e9a937adf3797df492262527f8d60.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -17097,25 +17097,25 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I119" s="2" t="n">
-        <v>43075.42087178241</v>
+        <v>44269.66674922454</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -17125,12 +17125,12 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>8887</t>
+          <t>8670</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>Pauline - Chateaubourg (35)</t>
+          <t>zines</t>
         </is>
       </c>
       <c r="O119" t="inlineStr"/>
@@ -17145,14 +17145,14 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.87907535019049e+17</v>
+        <v>8.206877495469015e+17</v>
       </c>
       <c r="S119" s="2" t="n">
-        <v>44284.77095934339</v>
+        <v>44281.9099977053</v>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>&lt;@!387907535019048961&gt;</t>
+          <t>&lt;@820687749546901539&gt;</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
@@ -17162,19 +17162,15 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>Pauline</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>Pauline - Chateaubourg (35)</t>
-        </is>
-      </c>
+          <t>zines</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr"/>
       <c r="Y119" t="b">
         <v>0</v>
       </c>
@@ -17192,7 +17188,7 @@
       <c r="AC119" t="inlineStr"/>
       <c r="AD119" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AE119" t="inlineStr">
@@ -17205,7 +17201,7 @@
       </c>
       <c r="AG119" t="inlineStr">
         <is>
-          <t>Encadrants</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AH119" t="inlineStr"/>
@@ -17227,12 +17223,12 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>917995aa2811ac9649b4be863d25b14a</t>
+          <t>d37e9a937adf3797df492262527f8d60</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/783025428431634463/917995aa2811ac9649b4be863d25b14a.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/387907535019048961/d37e9a937adf3797df492262527f8d60.webp?size=1024</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -17240,25 +17236,25 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="I120" s="2" t="n">
-        <v>44165.73854221065</v>
+        <v>43075.42087178241</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -17268,12 +17264,12 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>0184</t>
+          <t>8887</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Lilou - Saint-Omer (62)</t>
+          <t>Pauline - Chateaubourg (35)</t>
         </is>
       </c>
       <c r="O120" t="inlineStr"/>
@@ -17288,14 +17284,14 @@
         </is>
       </c>
       <c r="R120" t="n">
-        <v>7.830254284316344e+17</v>
+        <v>3.87907535019049e+17</v>
       </c>
       <c r="S120" s="2" t="n">
-        <v>44245.24075265046</v>
+        <v>44284.77095934339</v>
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>&lt;@!783025428431634463&gt;</t>
+          <t>&lt;@!387907535019048961&gt;</t>
         </is>
       </c>
       <c r="U120" t="inlineStr">
@@ -17305,17 +17301,17 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>lilou</t>
+          <t>Pauline</t>
         </is>
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>Lilou - Saint-Omer (62)</t>
+          <t>Pauline - Chateaubourg (35)</t>
         </is>
       </c>
       <c r="Y120" t="b">
@@ -17335,7 +17331,7 @@
       <c r="AC120" t="inlineStr"/>
       <c r="AD120" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045351683096587 name='Club Jeunes de Saint-Omer'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AE120" t="inlineStr">
@@ -17348,7 +17344,7 @@
       </c>
       <c r="AG120" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Encadrants</t>
         </is>
       </c>
       <c r="AH120" t="inlineStr"/>
@@ -17368,10 +17364,14 @@
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>917995aa2811ac9649b4be863d25b14a</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/avatars/783025428431634463/917995aa2811ac9649b4be863d25b14a.webp?size=1024</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -17388,16 +17388,16 @@
         </is>
       </c>
       <c r="I121" s="2" t="n">
-        <v>44253.53936686343</v>
+        <v>44165.73854221065</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -17407,12 +17407,12 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>0184</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Manon - La Roche-sur-Yon (85)</t>
+          <t>Lilou - Saint-Omer (62)</t>
         </is>
       </c>
       <c r="O121" t="inlineStr"/>
@@ -17427,14 +17427,14 @@
         </is>
       </c>
       <c r="R121" t="n">
-        <v>8.148433818761298e+17</v>
+        <v>7.830254284316344e+17</v>
       </c>
       <c r="S121" s="2" t="n">
-        <v>44257.38942131944</v>
+        <v>44245.24075265046</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>&lt;@!814843381876129834&gt;</t>
+          <t>&lt;@!783025428431634463&gt;</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
@@ -17444,17 +17444,17 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Manon CJ de la Roche sur Yon</t>
+          <t>lilou</t>
         </is>
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>Manon - La Roche-sur-Yon (85)</t>
+          <t>Lilou - Saint-Omer (62)</t>
         </is>
       </c>
       <c r="Y121" t="b">
@@ -17474,7 +17474,7 @@
       <c r="AC121" t="inlineStr"/>
       <c r="AD121" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046430646435851 name='Club Jeunes de la Roche-sur-Yon'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045351683096587 name='Club Jeunes de Saint-Omer'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE121" t="inlineStr">
@@ -17510,7 +17510,7 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -17527,16 +17527,16 @@
         </is>
       </c>
       <c r="I122" s="2" t="n">
-        <v>44246.62527730324</v>
+        <v>44253.53936686343</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -17546,12 +17546,12 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Luna - Millau (12)</t>
+          <t>Manon - La Roche-sur-Yon (85)</t>
         </is>
       </c>
       <c r="O122" t="inlineStr"/>
@@ -17566,14 +17566,14 @@
         </is>
       </c>
       <c r="R122" t="n">
-        <v>8.12337799717585e+17</v>
+        <v>8.148433818761298e+17</v>
       </c>
       <c r="S122" s="2" t="n">
-        <v>44246.62789802083</v>
+        <v>44257.38942131944</v>
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>&lt;@!812337799717584961&gt;</t>
+          <t>&lt;@!814843381876129834&gt;</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
@@ -17583,17 +17583,17 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Luna CJ de Millau</t>
+          <t>Manon CJ de la Roche sur Yon</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>Luna - Millau (12)</t>
+          <t>Manon - La Roche-sur-Yon (85)</t>
         </is>
       </c>
       <c r="Y122" t="b">
@@ -17613,7 +17613,7 @@
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046658808578118 name='Club Jeunes de Millau'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046430646435851 name='Club Jeunes de la Roche-sur-Yon'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE122" t="inlineStr">
@@ -17649,7 +17649,7 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -17666,16 +17666,16 @@
         </is>
       </c>
       <c r="I123" s="2" t="n">
-        <v>44260.72381994213</v>
+        <v>44246.62527730324</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -17685,12 +17685,12 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>3737</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Aurore - Vaux-le-Pénil (77)</t>
+          <t>Luna - Millau (12)</t>
         </is>
       </c>
       <c r="O123" t="inlineStr"/>
@@ -17705,14 +17705,14 @@
         </is>
       </c>
       <c r="R123" t="n">
-        <v>8.174469404925624e+17</v>
+        <v>8.12337799717585e+17</v>
       </c>
       <c r="S123" s="2" t="n">
-        <v>44260.72721981481</v>
+        <v>44246.62789802083</v>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>&lt;@!817446940492562443&gt;</t>
+          <t>&lt;@!812337799717584961&gt;</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
@@ -17722,17 +17722,17 @@
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Aurore CJ Vaulx le Penil</t>
+          <t>Luna CJ de Millau</t>
         </is>
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>Aurore - Vaux-le-Pénil (77)</t>
+          <t>Luna - Millau (12)</t>
         </is>
       </c>
       <c r="Y123" t="b">
@@ -17752,7 +17752,7 @@
       <c r="AC123" t="inlineStr"/>
       <c r="AD123" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046658808578118 name='Club Jeunes de Millau'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE123" t="inlineStr">
@@ -17796,16 +17796,16 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I124" s="2" t="n">
-        <v>44268.84372393518</v>
+        <v>44260.72381994213</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>3472</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Elina</t>
+          <t>Aurore - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="O124" t="inlineStr"/>
@@ -17844,14 +17844,14 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>8.20389495169876e+17</v>
+        <v>8.174469404925624e+17</v>
       </c>
       <c r="S124" s="2" t="n">
-        <v>44268.8440470086</v>
+        <v>44260.72721981481</v>
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>&lt;@820389495169876028&gt;</t>
+          <t>&lt;@!817446940492562443&gt;</t>
         </is>
       </c>
       <c r="U124" t="inlineStr">
@@ -17861,15 +17861,19 @@
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>Elina</t>
-        </is>
-      </c>
-      <c r="X124" t="inlineStr"/>
+          <t>Aurore CJ Vaulx le Penil</t>
+        </is>
+      </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>Aurore - Vaux-le-Pénil (77)</t>
+        </is>
+      </c>
       <c r="Y124" t="b">
         <v>0</v>
       </c>
@@ -17887,7 +17891,7 @@
       <c r="AC124" t="inlineStr"/>
       <c r="AD124" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE124" t="inlineStr">
@@ -17900,7 +17904,7 @@
       </c>
       <c r="AG124" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH124" t="inlineStr"/>
@@ -17923,7 +17927,7 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -17931,25 +17935,25 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I125" s="2" t="n">
-        <v>44279.4610219676</v>
+        <v>44268.84372393518</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -17959,12 +17963,12 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>7836</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Chloé - Luynes (37)</t>
+          <t>Elina</t>
         </is>
       </c>
       <c r="O125" t="inlineStr"/>
@@ -17979,14 +17983,14 @@
         </is>
       </c>
       <c r="R125" t="n">
-        <v>8.242370751412306e+17</v>
+        <v>8.20389495169876e+17</v>
       </c>
       <c r="S125" s="2" t="n">
-        <v>44279.46152634352</v>
+        <v>44268.8440470086</v>
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>&lt;@!824237075141230593&gt;</t>
+          <t>&lt;@820389495169876028&gt;</t>
         </is>
       </c>
       <c r="U125" t="inlineStr">
@@ -17996,19 +18000,15 @@
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>Chloé CJ Luynes</t>
-        </is>
-      </c>
-      <c r="X125" t="inlineStr">
-        <is>
-          <t>Chloé - Luynes (37)</t>
-        </is>
-      </c>
+          <t>Elina</t>
+        </is>
+      </c>
+      <c r="X125" t="inlineStr"/>
       <c r="Y125" t="b">
         <v>0</v>
       </c>
@@ -18026,7 +18026,7 @@
       <c r="AC125" t="inlineStr"/>
       <c r="AD125" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AE125" t="inlineStr">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="AG125" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AH125" t="inlineStr"/>
@@ -18059,14 +18059,10 @@
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>5253cdee182ccccb13aab66e8ff4f847</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/779255638911221790/5253cdee182ccccb13aab66e8ff4f847.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -18074,16 +18070,16 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I126" s="2" t="n">
-        <v>44155.33590493056</v>
+        <v>44279.4610219676</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -18102,12 +18098,12 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>3516</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Clémentine - SPDM (40)</t>
+          <t>Chloé - Luynes (37)</t>
         </is>
       </c>
       <c r="O126" t="inlineStr"/>
@@ -18122,14 +18118,14 @@
         </is>
       </c>
       <c r="R126" t="n">
-        <v>7.792556389112218e+17</v>
+        <v>8.242370751412306e+17</v>
       </c>
       <c r="S126" s="2" t="n">
-        <v>44260.74883314815</v>
+        <v>44279.46152634352</v>
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>&lt;@!779255638911221790&gt;</t>
+          <t>&lt;@!824237075141230593&gt;</t>
         </is>
       </c>
       <c r="U126" t="inlineStr">
@@ -18139,17 +18135,17 @@
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Clémentine CJ SaintPierreDuMont</t>
+          <t>Chloé CJ Luynes</t>
         </is>
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>Clémentine - SPDM (40)</t>
+          <t>Chloé - Luynes (37)</t>
         </is>
       </c>
       <c r="Y126" t="b">
@@ -18169,7 +18165,7 @@
       <c r="AC126" t="inlineStr"/>
       <c r="AD126" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE126" t="inlineStr">
@@ -18182,7 +18178,7 @@
       </c>
       <c r="AG126" t="inlineStr">
         <is>
-          <t>Encadrants</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH126" t="inlineStr"/>
@@ -18204,12 +18200,12 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>c37e45845b813edc5b6e9e39eede863a</t>
+          <t>5253cdee182ccccb13aab66e8ff4f847</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/809826133755428886/c37e45845b813edc5b6e9e39eede863a.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/779255638911221790/5253cdee182ccccb13aab66e8ff4f847.webp?size=1024</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -18226,7 +18222,7 @@
         </is>
       </c>
       <c r="I127" s="2" t="n">
-        <v>44239.6943996412</v>
+        <v>44155.33590493056</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -18245,12 +18241,12 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Élodie - Châteaubourg (35)</t>
+          <t>Clémentine - SPDM (40)</t>
         </is>
       </c>
       <c r="O127" t="inlineStr"/>
@@ -18265,14 +18261,14 @@
         </is>
       </c>
       <c r="R127" t="n">
-        <v>8.098261337554289e+17</v>
+        <v>7.792556389112218e+17</v>
       </c>
       <c r="S127" s="2" t="n">
-        <v>44284.7491927011</v>
+        <v>44260.74883314815</v>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>&lt;@!809826133755428886&gt;</t>
+          <t>&lt;@!779255638911221790&gt;</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
@@ -18282,17 +18278,17 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Ragnarock</t>
+          <t>Clémentine CJ SaintPierreDuMont</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>Élodie - Châteaubourg (35)</t>
+          <t>Clémentine - SPDM (40)</t>
         </is>
       </c>
       <c r="Y127" t="b">
@@ -18312,7 +18308,7 @@
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046575609839637 name='Club Jeunes de Saint Pierre du Mont'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AE127" t="inlineStr">
@@ -18345,38 +18341,42 @@
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>c37e45845b813edc5b6e9e39eede863a</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
+          <t>https://cdn.discordapp.com/avatars/809826133755428886/c37e45845b813edc5b6e9e39eede863a.webp?size=1024</t>
+        </is>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>#31c3d9</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>#31c3d9</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>44239.6943996412</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
           <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>#9b59b6</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>#9b59b6</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="n">
-        <v>44261.33389589121</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
-        </is>
-      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>offline</t>
@@ -18384,12 +18384,12 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>4921</t>
+          <t>1491</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Audrey - Le Garric (81)</t>
+          <t>Élodie - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="O128" t="inlineStr"/>
@@ -18404,14 +18404,14 @@
         </is>
       </c>
       <c r="R128" t="n">
-        <v>8.176680246133391e+17</v>
+        <v>8.098261337554289e+17</v>
       </c>
       <c r="S128" s="2" t="n">
-        <v>44261.33572283565</v>
+        <v>44284.7491927011</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>&lt;@!817668024613339177&gt;</t>
+          <t>&lt;@!809826133755428886&gt;</t>
         </is>
       </c>
       <c r="U128" t="inlineStr">
@@ -18421,17 +18421,17 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>Audrey (endadrante 81)</t>
+          <t>Ragnarock</t>
         </is>
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>Audrey - Le Garric (81)</t>
+          <t>Élodie - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="Y128" t="b">
@@ -18451,7 +18451,7 @@
       <c r="AC128" t="inlineStr"/>
       <c r="AD128" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046618182156328 name='Club Jeunes de Puech de Barret - Le Garric'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AE128" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="AG128" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Encadrants</t>
         </is>
       </c>
       <c r="AH128" t="inlineStr"/>
@@ -18484,14 +18484,10 @@
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>9b3c92412ab370df209e0c877adfefec</t>
-        </is>
-      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/526740097698365440/9b3c92412ab370df209e0c877adfefec.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -18499,25 +18495,25 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I129" s="2" t="n">
-        <v>43458.52575982639</v>
+        <v>44261.33389589121</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -18527,12 +18523,12 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>4921</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Thomas - Vaux-le-Pénil (77)</t>
+          <t>Audrey - Le Garric (81)</t>
         </is>
       </c>
       <c r="O129" t="inlineStr"/>
@@ -18547,14 +18543,14 @@
         </is>
       </c>
       <c r="R129" t="n">
-        <v>5.267400976983654e+17</v>
+        <v>8.176680246133391e+17</v>
       </c>
       <c r="S129" s="2" t="n">
-        <v>44252.84185878472</v>
+        <v>44261.33572283565</v>
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>&lt;@!526740097698365440&gt;</t>
+          <t>&lt;@!817668024613339177&gt;</t>
         </is>
       </c>
       <c r="U129" t="inlineStr">
@@ -18564,17 +18560,17 @@
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Lgjump</t>
+          <t>Audrey (endadrante 81)</t>
         </is>
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>Thomas - Vaux-le-Pénil (77)</t>
+          <t>Audrey - Le Garric (81)</t>
         </is>
       </c>
       <c r="Y129" t="b">
@@ -18594,7 +18590,7 @@
       <c r="AC129" t="inlineStr"/>
       <c r="AD129" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046618182156328 name='Club Jeunes de Puech de Barret - Le Garric'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AE129" t="inlineStr">
@@ -18607,7 +18603,7 @@
       </c>
       <c r="AG129" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AH129" t="inlineStr"/>
@@ -18627,10 +18623,14 @@
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>9b3c92412ab370df209e0c877adfefec</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/avatars/526740097698365440/9b3c92412ab370df209e0c877adfefec.webp?size=1024</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -18647,16 +18647,16 @@
         </is>
       </c>
       <c r="I130" s="2" t="n">
-        <v>44247.64193319444</v>
+        <v>43458.52575982639</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -18666,12 +18666,12 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>7048</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>Charlotte - Yvré l'Évêque (72)</t>
+          <t>Thomas - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="O130" t="inlineStr"/>
@@ -18686,14 +18686,14 @@
         </is>
       </c>
       <c r="R130" t="n">
-        <v>8.127062234761789e+17</v>
+        <v>5.267400976983654e+17</v>
       </c>
       <c r="S130" s="2" t="n">
-        <v>44247.64290869213</v>
+        <v>44252.84185878472</v>
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>&lt;@!812706223476178956&gt;</t>
+          <t>&lt;@!526740097698365440&gt;</t>
         </is>
       </c>
       <c r="U130" t="inlineStr">
@@ -18703,17 +18703,17 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>chachou</t>
+          <t>Lgjump</t>
         </is>
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>Charlotte - Yvré l'Évêque (72)</t>
+          <t>Thomas - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="Y130" t="b">
@@ -18733,7 +18733,7 @@
       <c r="AC130" t="inlineStr"/>
       <c r="AD130" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046088575909898 name="Club Jeunes d'Yvré-l'Evêque"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE130" t="inlineStr">
@@ -18762,47 +18762,40 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>(&lt;Game name='=help: 16423 servers'&gt;,)</t>
-        </is>
-      </c>
-      <c r="C131">
-        <f>help: 16423 servers</f>
-        <v/>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2887a7f4c0da56352aff000c80e80062</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/558996910581612545/2887a7f4c0da56352aff000c80e80062.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>#e67e22</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>#e67e22</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I131" s="2" t="n">
-        <v>43547.53760582176</v>
+        <v>44247.64193319444</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -18812,12 +18805,12 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>0134</t>
+          <t>7048</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>🐶Togo</t>
+          <t>Charlotte - Yvré l'Évêque (72)</t>
         </is>
       </c>
       <c r="O131" t="inlineStr"/>
@@ -18828,18 +18821,18 @@
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=8589934591&gt;</t>
+          <t>&lt;Permissions value=6546775616&gt;</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>5.589969105816125e+17</v>
+        <v>8.127062234761789e+17</v>
       </c>
       <c r="S131" s="2" t="n">
-        <v>44272.57799110116</v>
+        <v>44247.64290869213</v>
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>&lt;@!558996910581612545&gt;</t>
+          <t>&lt;@!812706223476178956&gt;</t>
         </is>
       </c>
       <c r="U131" t="inlineStr">
@@ -18849,17 +18842,17 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>QuizBot</t>
+          <t>chachou</t>
         </is>
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>🐶Togo</t>
+          <t>Charlotte - Yvré l'Évêque (72)</t>
         </is>
       </c>
       <c r="Y131" t="b">
@@ -18868,23 +18861,23 @@
       <c r="Z131" t="inlineStr"/>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>&lt;PublicUserFlags value=65536&gt;</t>
+          <t>&lt;PublicUserFlags value=0&gt;</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC131" t="inlineStr"/>
       <c r="AD131" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=821742748054716447 name='QuizBot'&gt;, &lt;Role id=822049053054730240 name='Bots'&gt;, &lt;Role id=819885985839448075 name='Modérateurs'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046088575909898 name="Club Jeunes d'Yvré-l'Evêque"&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE131" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF131" t="b">
@@ -18892,13 +18885,13 @@
       </c>
       <c r="AG131" t="inlineStr">
         <is>
-          <t>Modérateurs</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH131" t="inlineStr"/>
       <c r="AI131" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -18908,40 +18901,47 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>()</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
+          <t>(&lt;Game name='=help: quizbot.xyz'&gt;,)</t>
+        </is>
+      </c>
+      <c r="C132">
+        <f>help: quizbot.xyz</f>
+        <v/>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2887a7f4c0da56352aff000c80e80062</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/avatars/558996910581612545/2887a7f4c0da56352aff000c80e80062.webp?size=1024</t>
         </is>
       </c>
       <c r="F132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#e67e22</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#e67e22</t>
         </is>
       </c>
       <c r="I132" s="2" t="n">
-        <v>43910.46423488426</v>
+        <v>43547.53760582176</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>red</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -18951,12 +18951,12 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>7916</t>
+          <t>0134</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>maëlia-j</t>
+          <t>🐶Togo</t>
         </is>
       </c>
       <c r="O132" t="inlineStr"/>
@@ -18967,18 +18967,18 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=6546775616&gt;</t>
+          <t>&lt;Permissions value=8589934591&gt;</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>6.905171170568438e+17</v>
+        <v>5.589969105816125e+17</v>
       </c>
       <c r="S132" s="2" t="n">
-        <v>44265.84598695602</v>
+        <v>44272.57799110116</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>&lt;@690517117056843836&gt;</t>
+          <t>&lt;@!558996910581612545&gt;</t>
         </is>
       </c>
       <c r="U132" t="inlineStr">
@@ -18988,38 +18988,42 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>maëlia-j</t>
-        </is>
-      </c>
-      <c r="X132" t="inlineStr"/>
+          <t>QuizBot</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>🐶Togo</t>
+        </is>
+      </c>
       <c r="Y132" t="b">
         <v>0</v>
       </c>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>&lt;PublicUserFlags value=0&gt;</t>
+          <t>&lt;PublicUserFlags value=65536&gt;</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=821742748054716447 name='QuizBot'&gt;, &lt;Role id=822049053054730240 name='Bots'&gt;, &lt;Role id=819885985839448075 name='Modérateurs'&gt;]</t>
         </is>
       </c>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AF132" t="b">
@@ -19027,13 +19031,13 @@
       </c>
       <c r="AG132" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Modérateurs</t>
         </is>
       </c>
       <c r="AH132" t="inlineStr"/>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -19050,7 +19054,7 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -19058,25 +19062,25 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I133" s="2" t="n">
-        <v>44260.87580780093</v>
+        <v>43910.46423488426</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -19086,12 +19090,12 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>0867</t>
+          <t>7916</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Virginie - Arry (57)</t>
+          <t>maëlia-j</t>
         </is>
       </c>
       <c r="O133" t="inlineStr"/>
@@ -19106,14 +19110,14 @@
         </is>
       </c>
       <c r="R133" t="n">
-        <v>8.175020190484399e+17</v>
+        <v>6.905171170568438e+17</v>
       </c>
       <c r="S133" s="2" t="n">
-        <v>44260.87813041667</v>
+        <v>44265.84598695602</v>
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>&lt;@!817502019048439889&gt;</t>
+          <t>&lt;@690517117056843836&gt;</t>
         </is>
       </c>
       <c r="U133" t="inlineStr">
@@ -19123,19 +19127,15 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>Virginie</t>
-        </is>
-      </c>
-      <c r="X133" t="inlineStr">
-        <is>
-          <t>Virginie - Arry (57)</t>
-        </is>
-      </c>
+          <t>maëlia-j</t>
+        </is>
+      </c>
+      <c r="X133" t="inlineStr"/>
       <c r="Y133" t="b">
         <v>0</v>
       </c>
@@ -19153,7 +19153,7 @@
       <c r="AC133" t="inlineStr"/>
       <c r="AD133" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047519089295381 name="Club Jeunes d'Arry"&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AE133" t="inlineStr">
@@ -19166,7 +19166,7 @@
       </c>
       <c r="AG133" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AH133" t="inlineStr"/>
@@ -19186,14 +19186,10 @@
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>6ab935bd837b64502edfb010394ca0de</t>
-        </is>
-      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/294200564357791745/6ab935bd837b64502edfb010394ca0de.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -19201,40 +19197,40 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>#e91e63</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>#e91e63</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I134" s="2" t="n">
-        <v>42816.83889496528</v>
+        <v>44260.87580780093</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>6625</t>
+          <t>0867</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>Cédric - Rennes (35)</t>
+          <t>Virginie - Arry (57)</t>
         </is>
       </c>
       <c r="O134" t="inlineStr"/>
@@ -19245,18 +19241,18 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=8589934591&gt;</t>
+          <t>&lt;Permissions value=6546775616&gt;</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.942005643577917e+17</v>
+        <v>8.175020190484399e+17</v>
       </c>
       <c r="S134" s="2" t="n">
-        <v>44260.74857097222</v>
+        <v>44260.87813041667</v>
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t>&lt;@!294200564357791745&gt;</t>
+          <t>&lt;@!817502019048439889&gt;</t>
         </is>
       </c>
       <c r="U134" t="inlineStr">
@@ -19266,17 +19262,17 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=787633590095314974 name='CaniFriend - Rennes' shard_id=None chunked=True member_count=9&gt;, &lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;, &lt;Guild id=818580901919195197 name='Serveur de Cédric' shard_id=None chunked=True member_count=5&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>Cédric</t>
+          <t>Virginie</t>
         </is>
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>Cédric - Rennes (35)</t>
+          <t>Virginie - Arry (57)</t>
         </is>
       </c>
       <c r="Y134" t="b">
@@ -19290,18 +19286,18 @@
       </c>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC134" t="inlineStr"/>
       <c r="AD134" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045864483029013 name='Club Jeunes de Rennes'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;, &lt;Role id=819885985839448075 name='Modérateurs'&gt;, &lt;Role id=806175137698545675 name='Administrateurs'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047519089295381 name="Club Jeunes d'Arry"&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AE134" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF134" t="b">
@@ -19309,7 +19305,7 @@
       </c>
       <c r="AG134" t="inlineStr">
         <is>
-          <t>Administrateurs</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AH134" t="inlineStr"/>
@@ -19329,51 +19325,55 @@
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>6ab935bd837b64502edfb010394ca0de</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
+          <t>https://cdn.discordapp.com/avatars/294200564357791745/6ab935bd837b64502edfb010394ca0de.webp?size=1024</t>
+        </is>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>#e91e63</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>#e91e63</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>42816.83889496528</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>blurple</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
           <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
-      <c r="F135" t="b">
-        <v>0</v>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>#a84300</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>#a84300</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="n">
-        <v>44251.47837539352</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>blurple</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
-        </is>
-      </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>6625</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>Hanna.cnlr</t>
+          <t>Cédric - Rennes (35)</t>
         </is>
       </c>
       <c r="O135" t="inlineStr"/>
@@ -19384,18 +19384,18 @@
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>&lt;Permissions value=6546775616&gt;</t>
+          <t>&lt;Permissions value=8589934591&gt;</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>8.140965035754127e+17</v>
+        <v>2.942005643577917e+17</v>
       </c>
       <c r="S135" s="2" t="n">
-        <v>44251.72253608796</v>
+        <v>44260.74857097222</v>
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>&lt;@814096503575412747&gt;</t>
+          <t>&lt;@!294200564357791745&gt;</t>
         </is>
       </c>
       <c r="U135" t="inlineStr">
@@ -19405,15 +19405,19 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=787633590095314974 name='CaniFriend - Rennes' shard_id=None chunked=True member_count=9&gt;, &lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;, &lt;Guild id=818580901919195197 name='Serveur de Cédric' shard_id=None chunked=True member_count=5&gt;]</t>
         </is>
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Hanna.cnlr</t>
-        </is>
-      </c>
-      <c r="X135" t="inlineStr"/>
+          <t>Cédric</t>
+        </is>
+      </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>Cédric - Rennes (35)</t>
+        </is>
+      </c>
       <c r="Y135" t="b">
         <v>0</v>
       </c>
@@ -19425,18 +19429,18 @@
       </c>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC135" t="inlineStr"/>
       <c r="AD135" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045864483029013 name='Club Jeunes de Rennes'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;, &lt;Role id=819885985839448075 name='Modérateurs'&gt;, &lt;Role id=806175137698545675 name='Administrateurs'&gt;]</t>
         </is>
       </c>
       <c r="AE135" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AF135" t="b">
@@ -19444,7 +19448,7 @@
       </c>
       <c r="AG135" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Administrateurs</t>
         </is>
       </c>
       <c r="AH135" t="inlineStr"/>
@@ -19467,7 +19471,7 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -19475,25 +19479,25 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I136" s="2" t="n">
-        <v>44253.44693829861</v>
+        <v>44251.47837539352</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -19503,12 +19507,12 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>4322</t>
+          <t>2575</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>Lana - Chamarande (91)</t>
+          <t>Hanna.cnlr</t>
         </is>
       </c>
       <c r="O136" t="inlineStr"/>
@@ -19523,14 +19527,14 @@
         </is>
       </c>
       <c r="R136" t="n">
-        <v>8.148098868859372e+17</v>
+        <v>8.140965035754127e+17</v>
       </c>
       <c r="S136" s="2" t="n">
-        <v>44253.44805060185</v>
+        <v>44251.72253608796</v>
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>&lt;@!814809886885937162&gt;</t>
+          <t>&lt;@814096503575412747&gt;</t>
         </is>
       </c>
       <c r="U136" t="inlineStr">
@@ -19540,19 +19544,15 @@
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>Lana du CJ de Chamarande</t>
-        </is>
-      </c>
-      <c r="X136" t="inlineStr">
-        <is>
-          <t>Lana - Chamarande (91)</t>
-        </is>
-      </c>
+          <t>Hanna.cnlr</t>
+        </is>
+      </c>
+      <c r="X136" t="inlineStr"/>
       <c r="Y136" t="b">
         <v>0</v>
       </c>
@@ -19570,7 +19570,7 @@
       <c r="AC136" t="inlineStr"/>
       <c r="AD136" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047099227930654 name='Club Jeunes de Chamarande'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AE136" t="inlineStr">
@@ -19583,7 +19583,7 @@
       </c>
       <c r="AG136" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AH136" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -19623,16 +19623,16 @@
         </is>
       </c>
       <c r="I137" s="2" t="n">
-        <v>44246.87917717593</v>
+        <v>44253.44693829861</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/2.png</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -19642,12 +19642,12 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>Sarah - Chameyrat (19)</t>
+          <t>Lana - Chamarande (91)</t>
         </is>
       </c>
       <c r="O137" t="inlineStr"/>
@@ -19662,14 +19662,14 @@
         </is>
       </c>
       <c r="R137" t="n">
-        <v>8.124298099507855e+17</v>
+        <v>8.148098868859372e+17</v>
       </c>
       <c r="S137" s="2" t="n">
-        <v>44248.81737181713</v>
+        <v>44253.44805060185</v>
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>&lt;@!812429809950785597&gt;</t>
+          <t>&lt;@!814809886885937162&gt;</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
@@ -19679,17 +19679,17 @@
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>Sarah CJ de Chameyrat</t>
+          <t>Lana du CJ de Chamarande</t>
         </is>
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>Sarah - Chameyrat (19)</t>
+          <t>Lana - Chamarande (91)</t>
         </is>
       </c>
       <c r="Y137" t="b">
@@ -19709,7 +19709,7 @@
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046691360309290 name='Club Jeunes de Chameyrat'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047099227930654 name='Club Jeunes de Chamarande'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE137" t="inlineStr">
@@ -19745,7 +19745,7 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -19762,16 +19762,16 @@
         </is>
       </c>
       <c r="I138" s="2" t="n">
-        <v>44272.64449244213</v>
+        <v>44246.87917717593</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -19781,12 +19781,12 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>3188</t>
+          <t>7571</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Léandra - Luynes (37)</t>
+          <t>Sarah - Chameyrat (19)</t>
         </is>
       </c>
       <c r="O138" t="inlineStr"/>
@@ -19801,14 +19801,14 @@
         </is>
       </c>
       <c r="R138" t="n">
-        <v>8.217668475560919e+17</v>
+        <v>8.124298099507855e+17</v>
       </c>
       <c r="S138" s="2" t="n">
-        <v>44272.64921679809</v>
+        <v>44248.81737181713</v>
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>&lt;@!821766847556091944&gt;</t>
+          <t>&lt;@!812429809950785597&gt;</t>
         </is>
       </c>
       <c r="U138" t="inlineStr">
@@ -19818,17 +19818,17 @@
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>Léandra cj de luynes</t>
+          <t>Sarah CJ de Chameyrat</t>
         </is>
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>Léandra - Luynes (37)</t>
+          <t>Sarah - Chameyrat (19)</t>
         </is>
       </c>
       <c r="Y138" t="b">
@@ -19848,7 +19848,7 @@
       <c r="AC138" t="inlineStr"/>
       <c r="AD138" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046691360309290 name='Club Jeunes de Chameyrat'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE138" t="inlineStr">
@@ -19881,14 +19881,10 @@
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>b606da54ba3289eef99b838e402f3ea2</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/814554700983566356/b606da54ba3289eef99b838e402f3ea2.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -19905,16 +19901,16 @@
         </is>
       </c>
       <c r="I139" s="2" t="n">
-        <v>44252.74275936343</v>
+        <v>44272.64449244213</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -19924,12 +19920,12 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>Elsa - Lons-le-Saunier (39)</t>
+          <t>Léandra - Luynes (37)</t>
         </is>
       </c>
       <c r="O139" t="inlineStr"/>
@@ -19944,14 +19940,14 @@
         </is>
       </c>
       <c r="R139" t="n">
-        <v>8.145547009835663e+17</v>
+        <v>8.217668475560919e+17</v>
       </c>
       <c r="S139" s="2" t="n">
-        <v>44252.74508498843</v>
+        <v>44272.64921679809</v>
       </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t>&lt;@!814554700983566356&gt;</t>
+          <t>&lt;@!821766847556091944&gt;</t>
         </is>
       </c>
       <c r="U139" t="inlineStr">
@@ -19961,17 +19957,17 @@
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Elsa CJ Lons Le Saunier</t>
+          <t>Léandra cj de luynes</t>
         </is>
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>Elsa - Lons-le-Saunier (39)</t>
+          <t>Léandra - Luynes (37)</t>
         </is>
       </c>
       <c r="Y139" t="b">
@@ -19991,7 +19987,7 @@
       <c r="AC139" t="inlineStr"/>
       <c r="AD139" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046942306304011 name='Club Jeunes de Lons-le-Saunier'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE139" t="inlineStr">
@@ -20024,10 +20020,14 @@
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>b606da54ba3289eef99b838e402f3ea2</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/avatars/814554700983566356/b606da54ba3289eef99b838e402f3ea2.webp?size=1024</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="I140" s="2" t="n">
-        <v>44260.75008159722</v>
+        <v>44252.74275936343</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -20063,12 +20063,12 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>Stéphane - Thionville (57)</t>
+          <t>Elsa - Lons-le-Saunier (39)</t>
         </is>
       </c>
       <c r="O140" t="inlineStr"/>
@@ -20083,14 +20083,14 @@
         </is>
       </c>
       <c r="R140" t="n">
-        <v>8.174564573970432e+17</v>
+        <v>8.145547009835663e+17</v>
       </c>
       <c r="S140" s="2" t="n">
-        <v>44260.75081932871</v>
+        <v>44252.74508498843</v>
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>&lt;@!817456457397043241&gt;</t>
+          <t>&lt;@!814554700983566356&gt;</t>
         </is>
       </c>
       <c r="U140" t="inlineStr">
@@ -20100,17 +20100,17 @@
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>Stephane (Thionville)</t>
+          <t>Elsa CJ Lons Le Saunier</t>
         </is>
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>Stéphane - Thionville (57)</t>
+          <t>Elsa - Lons-le-Saunier (39)</t>
         </is>
       </c>
       <c r="Y140" t="b">
@@ -20130,7 +20130,7 @@
       <c r="AC140" t="inlineStr"/>
       <c r="AD140" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046942306304011 name='Club Jeunes de Lons-le-Saunier'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE140" t="inlineStr">
@@ -20166,7 +20166,7 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F141" t="b">
@@ -20174,25 +20174,25 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I141" s="2" t="n">
-        <v>44147.58521078704</v>
+        <v>44260.75008159722</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -20202,12 +20202,12 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>1753</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>Lucie mages</t>
+          <t>Stéphane - Thionville (57)</t>
         </is>
       </c>
       <c r="O141" t="inlineStr"/>
@@ -20222,14 +20222,14 @@
         </is>
       </c>
       <c r="R141" t="n">
-        <v>7.764468814032404e+17</v>
+        <v>8.174564573970432e+17</v>
       </c>
       <c r="S141" s="2" t="n">
-        <v>44271.32746938309</v>
+        <v>44260.75081932871</v>
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>&lt;@776446881403240458&gt;</t>
+          <t>&lt;@!817456457397043241&gt;</t>
         </is>
       </c>
       <c r="U141" t="inlineStr">
@@ -20239,15 +20239,19 @@
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>Lucie mages</t>
-        </is>
-      </c>
-      <c r="X141" t="inlineStr"/>
+          <t>Stephane (Thionville)</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>Stéphane - Thionville (57)</t>
+        </is>
+      </c>
       <c r="Y141" t="b">
         <v>0</v>
       </c>
@@ -20265,7 +20269,7 @@
       <c r="AC141" t="inlineStr"/>
       <c r="AD141" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE141" t="inlineStr">
@@ -20278,7 +20282,7 @@
       </c>
       <c r="AG141" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH141" t="inlineStr"/>
@@ -20301,7 +20305,7 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F142" t="b">
@@ -20309,25 +20313,25 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I142" s="2" t="n">
-        <v>44249.62504599537</v>
+        <v>44147.58521078704</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -20337,12 +20341,12 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>6400</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>Lily - Rennes (35)</t>
+          <t>Lucie mages</t>
         </is>
       </c>
       <c r="O142" t="inlineStr"/>
@@ -20357,14 +20361,14 @@
         </is>
       </c>
       <c r="R142" t="n">
-        <v>8.134248794912195e+17</v>
+        <v>7.764468814032404e+17</v>
       </c>
       <c r="S142" s="2" t="n">
-        <v>44249.62520314815</v>
+        <v>44271.32746938309</v>
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>&lt;@!813424879491219456&gt;</t>
+          <t>&lt;@776446881403240458&gt;</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
@@ -20374,19 +20378,15 @@
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Lily CJ de Rennes</t>
-        </is>
-      </c>
-      <c r="X142" t="inlineStr">
-        <is>
-          <t>Lily - Rennes (35)</t>
-        </is>
-      </c>
+          <t>Lucie mages</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr"/>
       <c r="Y142" t="b">
         <v>0</v>
       </c>
@@ -20404,7 +20404,7 @@
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045864483029013 name='Club Jeunes de Rennes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AE142" t="inlineStr">
@@ -20417,7 +20417,7 @@
       </c>
       <c r="AG142" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AH142" t="inlineStr"/>
@@ -20448,16 +20448,16 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>#a84300</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I143" s="2" t="n">
-        <v>44261.46871645833</v>
+        <v>44249.62504599537</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -20476,12 +20476,12 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>5636</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>Naïs</t>
+          <t>Lily - Rennes (35)</t>
         </is>
       </c>
       <c r="O143" t="inlineStr"/>
@@ -20496,14 +20496,14 @@
         </is>
       </c>
       <c r="R143" t="n">
-        <v>8.177168819509002e+17</v>
+        <v>8.134248794912195e+17</v>
       </c>
       <c r="S143" s="2" t="n">
-        <v>44261.47112094907</v>
+        <v>44249.62520314815</v>
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>&lt;@817716881950900234&gt;</t>
+          <t>&lt;@!813424879491219456&gt;</t>
         </is>
       </c>
       <c r="U143" t="inlineStr">
@@ -20513,15 +20513,19 @@
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>Naïs</t>
-        </is>
-      </c>
-      <c r="X143" t="inlineStr"/>
+          <t>Lily CJ de Rennes</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>Lily - Rennes (35)</t>
+        </is>
+      </c>
       <c r="Y143" t="b">
         <v>0</v>
       </c>
@@ -20539,7 +20543,7 @@
       <c r="AC143" t="inlineStr"/>
       <c r="AD143" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045864483029013 name='Club Jeunes de Rennes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE143" t="inlineStr">
@@ -20552,7 +20556,7 @@
       </c>
       <c r="AG143" t="inlineStr">
         <is>
-          <t>Non présentés</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH143" t="inlineStr"/>
@@ -20575,7 +20579,7 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F144" t="b">
@@ -20583,25 +20587,25 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>#31c3d9</t>
+          <t>#a84300</t>
         </is>
       </c>
       <c r="I144" s="2" t="n">
-        <v>44263.79780621528</v>
+        <v>44261.46871645833</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -20611,12 +20615,12 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>5118</t>
+          <t>5636</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>Caroline - Thionville (57)</t>
+          <t>Naïs</t>
         </is>
       </c>
       <c r="O144" t="inlineStr"/>
@@ -20631,14 +20635,14 @@
         </is>
       </c>
       <c r="R144" t="n">
-        <v>8.185609158171034e+17</v>
+        <v>8.177168819509002e+17</v>
       </c>
       <c r="S144" s="2" t="n">
-        <v>44263.7987427662</v>
+        <v>44261.47112094907</v>
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>&lt;@!818560915817103370&gt;</t>
+          <t>&lt;@817716881950900234&gt;</t>
         </is>
       </c>
       <c r="U144" t="inlineStr">
@@ -20648,19 +20652,15 @@
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>caroline enc.CJ Thionville</t>
-        </is>
-      </c>
-      <c r="X144" t="inlineStr">
-        <is>
-          <t>Caroline - Thionville (57)</t>
-        </is>
-      </c>
+          <t>Naïs</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr"/>
       <c r="Y144" t="b">
         <v>0</v>
       </c>
@@ -20678,7 +20678,7 @@
       <c r="AC144" t="inlineStr"/>
       <c r="AD144" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=822524206746304542 name='Non présentés'&gt;]</t>
         </is>
       </c>
       <c r="AE144" t="inlineStr">
@@ -20691,7 +20691,7 @@
       </c>
       <c r="AG144" t="inlineStr">
         <is>
-          <t>Encadrants</t>
+          <t>Non présentés</t>
         </is>
       </c>
       <c r="AH144" t="inlineStr"/>
@@ -20714,7 +20714,7 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="F145" t="b">
@@ -20722,25 +20722,25 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#31c3d9</t>
         </is>
       </c>
       <c r="I145" s="2" t="n">
-        <v>44272.73527208334</v>
+        <v>44263.79780621528</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -20750,12 +20750,12 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>3245</t>
+          <t>5118</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>Owen - Luynes (37)</t>
+          <t>Caroline - Thionville (57)</t>
         </is>
       </c>
       <c r="O145" t="inlineStr"/>
@@ -20770,14 +20770,14 @@
         </is>
       </c>
       <c r="R145" t="n">
-        <v>8.217997449967698e+17</v>
+        <v>8.185609158171034e+17</v>
       </c>
       <c r="S145" s="2" t="n">
-        <v>44273.70411601721</v>
+        <v>44263.7987427662</v>
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>&lt;@!821799744996769822&gt;</t>
+          <t>&lt;@!818560915817103370&gt;</t>
         </is>
       </c>
       <c r="U145" t="inlineStr">
@@ -20787,17 +20787,17 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>Owen du CJ de luyne</t>
+          <t>caroline enc.CJ Thionville</t>
         </is>
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>Owen - Luynes (37)</t>
+          <t>Caroline - Thionville (57)</t>
         </is>
       </c>
       <c r="Y145" t="b">
@@ -20817,7 +20817,7 @@
       <c r="AC145" t="inlineStr"/>
       <c r="AD145" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;]</t>
         </is>
       </c>
       <c r="AE145" t="inlineStr">
@@ -20830,7 +20830,7 @@
       </c>
       <c r="AG145" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Encadrants</t>
         </is>
       </c>
       <c r="AH145" t="inlineStr"/>
@@ -20846,18 +20846,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>(&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Fortnite' url=None details='Battle Royale - In Lobby' application_id=432980957394370572 session_id='9661cbdd7db3be932806466579073438' emoji=None&gt;,)</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Fortnite' url=None details='Battle Royale - In Lobby' application_id=432980957394370572 session_id='9661cbdd7db3be932806466579073438' emoji=None&gt;</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="F146" t="b">
@@ -20874,31 +20870,31 @@
         </is>
       </c>
       <c r="I146" s="2" t="n">
-        <v>43932.57177248842</v>
+        <v>44272.73527208334</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>8476</t>
+          <t>3245</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>Valentin - Vaux-le-Pénil (77)</t>
+          <t>Owen - Luynes (37)</t>
         </is>
       </c>
       <c r="O146" t="inlineStr"/>
@@ -20913,14 +20909,14 @@
         </is>
       </c>
       <c r="R146" t="n">
-        <v>6.985286204231517e+17</v>
+        <v>8.217997449967698e+17</v>
       </c>
       <c r="S146" s="2" t="n">
-        <v>44258.69416482639</v>
+        <v>44273.70411601721</v>
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>&lt;@!698528620423151706&gt;</t>
+          <t>&lt;@!821799744996769822&gt;</t>
         </is>
       </c>
       <c r="U146" t="inlineStr">
@@ -20930,17 +20926,17 @@
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Valentin CJ vaux-le-pénil</t>
+          <t>Owen du CJ de luyne</t>
         </is>
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>Valentin - Vaux-le-Pénil (77)</t>
+          <t>Owen - Luynes (37)</t>
         </is>
       </c>
       <c r="Y146" t="b">
@@ -20954,18 +20950,18 @@
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC146" t="inlineStr"/>
       <c r="AD146" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820046147368386610 name='Club Jeunes de Luynes'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE146" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF146" t="b">
@@ -20993,14 +20989,10 @@
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>61e5edddf72d399f97022dd113b99a30</t>
-        </is>
-      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/739521549132103712/61e5edddf72d399f97022dd113b99a30.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="F147" t="b">
@@ -21008,25 +21000,25 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>#9b59b6</t>
+          <t>#c6b211</t>
         </is>
       </c>
       <c r="I147" s="2" t="n">
-        <v>44045.69070554398</v>
+        <v>43932.57177248842</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>blurple</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -21036,12 +21028,12 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>7405</t>
+          <t>8476</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>Stephane - Thionville (57)</t>
+          <t>Valentin - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="O147" t="inlineStr"/>
@@ -21056,14 +21048,14 @@
         </is>
       </c>
       <c r="R147" t="n">
-        <v>7.395215491321037e+17</v>
+        <v>6.985286204231517e+17</v>
       </c>
       <c r="S147" s="2" t="n">
-        <v>44260.8014225463</v>
+        <v>44258.69416482639</v>
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>&lt;@!739521549132103712&gt;</t>
+          <t>&lt;@!698528620423151706&gt;</t>
         </is>
       </c>
       <c r="U147" t="inlineStr">
@@ -21073,17 +21065,17 @@
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>sgodefroy</t>
+          <t>Valentin CJ vaux-le-pénil</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>Stephane - Thionville (57)</t>
+          <t>Valentin - Vaux-le-Pénil (77)</t>
         </is>
       </c>
       <c r="Y147" t="b">
@@ -21103,7 +21095,7 @@
       <c r="AC147" t="inlineStr"/>
       <c r="AD147" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047150930198538 name='Club Jeunes de Vaux-le-Pénil'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
         </is>
       </c>
       <c r="AE147" t="inlineStr">
@@ -21116,7 +21108,7 @@
       </c>
       <c r="AG147" t="inlineStr">
         <is>
-          <t>Référents</t>
+          <t>Jeunes</t>
         </is>
       </c>
       <c r="AH147" t="inlineStr"/>
@@ -21138,12 +21130,12 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>24bb0f3028ae685881d392acb7d02817</t>
+          <t>61e5edddf72d399f97022dd113b99a30</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/817455331637461033/24bb0f3028ae685881d392acb7d02817.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/739521549132103712/61e5edddf72d399f97022dd113b99a30.webp?size=1024</t>
         </is>
       </c>
       <c r="F148" t="b">
@@ -21160,16 +21152,16 @@
         </is>
       </c>
       <c r="I148" s="2" t="n">
-        <v>44260.7469750926</v>
+        <v>44045.69070554398</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>blurple</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/0.png</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -21179,12 +21171,12 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>6316</t>
+          <t>7405</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>Romane - Châteaubourg (35)</t>
+          <t>Stephane - Thionville (57)</t>
         </is>
       </c>
       <c r="O148" t="inlineStr"/>
@@ -21199,14 +21191,14 @@
         </is>
       </c>
       <c r="R148" t="n">
-        <v>8.17455331637461e+17</v>
+        <v>7.395215491321037e+17</v>
       </c>
       <c r="S148" s="2" t="n">
-        <v>44260.78214216435</v>
+        <v>44260.8014225463</v>
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>&lt;@!817455331637461033&gt;</t>
+          <t>&lt;@!739521549132103712&gt;</t>
         </is>
       </c>
       <c r="U148" t="inlineStr">
@@ -21216,17 +21208,17 @@
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Romane Chateaubourg</t>
+          <t>sgodefroy</t>
         </is>
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>Romane - Châteaubourg (35)</t>
+          <t>Stephane - Thionville (57)</t>
         </is>
       </c>
       <c r="Y148" t="b">
@@ -21246,7 +21238,7 @@
       <c r="AC148" t="inlineStr"/>
       <c r="AD148" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047490451243070 name='Club Jeunes de Thionville'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AE148" t="inlineStr">
@@ -21281,12 +21273,12 @@
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>4a43a38d70f3d741c51fea99b5a2fefa</t>
+          <t>24bb0f3028ae685881d392acb7d02817</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/avatars/797583554988474418/4a43a38d70f3d741c51fea99b5a2fefa.webp?size=1024</t>
+          <t>https://cdn.discordapp.com/avatars/817455331637461033/24bb0f3028ae685881d392acb7d02817.webp?size=1024</t>
         </is>
       </c>
       <c r="F149" t="b">
@@ -21294,25 +21286,25 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>#c6b211</t>
+          <t>#9b59b6</t>
         </is>
       </c>
       <c r="I149" s="2" t="n">
-        <v>44205.91131822917</v>
+        <v>44260.7469750926</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+          <t>https://cdn.discordapp.com/embed/avatars/1.png</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -21322,12 +21314,12 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>7769</t>
+          <t>6316</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>Zoé- Forbach (57)</t>
+          <t>Romane - Châteaubourg (35)</t>
         </is>
       </c>
       <c r="O149" t="inlineStr"/>
@@ -21342,14 +21334,14 @@
         </is>
       </c>
       <c r="R149" t="n">
-        <v>7.975835549884744e+17</v>
+        <v>8.17455331637461e+17</v>
       </c>
       <c r="S149" s="2" t="n">
-        <v>44297.69940680121</v>
+        <v>44260.78214216435</v>
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>&lt;@797583554988474418&gt;</t>
+          <t>&lt;@!817455331637461033&gt;</t>
         </is>
       </c>
       <c r="U149" t="inlineStr">
@@ -21359,15 +21351,19 @@
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=149&gt;]</t>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Zoé- Forbach (57)</t>
-        </is>
-      </c>
-      <c r="X149" t="inlineStr"/>
+          <t>Romane Chateaubourg</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>Romane - Châteaubourg (35)</t>
+        </is>
+      </c>
       <c r="Y149" t="b">
         <v>0</v>
       </c>
@@ -21385,7 +21381,7 @@
       <c r="AC149" t="inlineStr"/>
       <c r="AD149" t="inlineStr">
         <is>
-          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047545786171423 name='Club Jeunes de Forbach'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820045816579489802 name='Club Jeunes de Châteaubourg'&gt;, &lt;Role id=806177522408488970 name='Encadrants'&gt;, &lt;Role id=806175699416776744 name='Référents'&gt;]</t>
         </is>
       </c>
       <c r="AE149" t="inlineStr">
@@ -21398,11 +21394,150 @@
       </c>
       <c r="AG149" t="inlineStr">
         <is>
-          <t>Jeunes</t>
+          <t>Référents</t>
         </is>
       </c>
       <c r="AH149" t="inlineStr"/>
       <c r="AI149" t="inlineStr">
+        <is>
+          <t>offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>4a43a38d70f3d741c51fea99b5a2fefa</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://cdn.discordapp.com/avatars/797583554988474418/4a43a38d70f3d741c51fea99b5a2fefa.webp?size=1024</t>
+        </is>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>#c6b211</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>#c6b211</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>44205.91131822917</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>https://cdn.discordapp.com/embed/avatars/4.png</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>offline</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>7769</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>Zoé- Forbach (57)</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>Clubs Jeunes SPA</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>&lt;Permissions value=6546775616&gt;</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>7.975835549884744e+17</v>
+      </c>
+      <c r="S150" s="2" t="n">
+        <v>44297.69940680121</v>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>&lt;@797583554988474418&gt;</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>offline</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>[&lt;Guild id=806137569116291102 name='Clubs Jeunes SPA' shard_id=None chunked=True member_count=150&gt;]</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>Zoé- Forbach (57)</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr">
+        <is>
+          <t>&lt;PublicUserFlags value=0&gt;</t>
+        </is>
+      </c>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>offline</t>
+        </is>
+      </c>
+      <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr">
+        <is>
+          <t>[&lt;Role id=806137569116291102 name='@everyone'&gt;, &lt;Role id=820047545786171423 name='Club Jeunes de Forbach'&gt;, &lt;Role id=819885398540943390 name='Jeunes'&gt;]</t>
+        </is>
+      </c>
+      <c r="AE150" t="inlineStr">
+        <is>
+          <t>offline</t>
+        </is>
+      </c>
+      <c r="AF150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG150" t="inlineStr">
+        <is>
+          <t>Jeunes</t>
+        </is>
+      </c>
+      <c r="AH150" t="inlineStr"/>
+      <c r="AI150" t="inlineStr">
         <is>
           <t>offline</t>
         </is>

--- a/outputs/xlsx/members.xlsx
+++ b/outputs/xlsx/members.xlsx
@@ -796,7 +796,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AF3" t="b">
@@ -1604,10 +1604,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>()</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>(&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Fortnite' url=None details='Battle Royale - 37 restants' application_id=432980957394370572 session_id=None emoji=None&gt;,)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Fortnite' url=None details='Battle Royale - 37 restants' application_id=432980957394370572 session_id=None emoji=None&gt;</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>82c6be341b053bf8b2b2265eac533d19</t>
@@ -1646,7 +1650,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1712,7 +1716,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr"/>
@@ -1723,7 +1727,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AF9" t="b">
@@ -2883,12 +2887,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='1981 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;,)</t>
+          <t>(&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='1985 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;,)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='1981 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;</t>
+          <t>&lt;Activity type=&lt;ActivityType.watching: 3&gt; name='1985 servers with 2 shards | ML!help' url=None details=None application_id=None session_id=None emoji=None&gt;</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5475,7 +5479,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -5541,7 +5545,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr"/>
@@ -5552,7 +5556,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AF36" t="b">
@@ -6831,10 +6835,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>()</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>(&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Minecraft' url=None details=None application_id=356875570916753438 session_id=None emoji=None&gt;, &lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Salwyrr Launcher' url=None details='Play on Serveur Minecraft rina' application_id=463961822568120320 session_id=None emoji=None&gt;)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>&lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Minecraft' url=None details=None application_id=356875570916753438 session_id=None emoji=None&gt;</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>5ca3ae6758272a64cda8539a4bd69004</t>
@@ -6873,7 +6881,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -6939,7 +6947,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr"/>
@@ -6950,7 +6958,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>dnd</t>
         </is>
       </c>
       <c r="AF46" t="b">
@@ -9681,7 +9689,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -9747,7 +9755,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr"/>
@@ -9758,7 +9766,7 @@
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AF66" t="b">
@@ -10004,7 +10012,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -10033,7 +10041,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr"/>
@@ -10044,7 +10052,7 @@
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
       <c r="AF68" t="b">
@@ -11929,7 +11937,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -11995,7 +12003,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr"/>
@@ -12006,7 +12014,7 @@
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>dnd</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF82" t="b">
@@ -15251,14 +15259,10 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>(&lt;CustomActivity name='"j’aimerais que tout le monde...même les faibles...soient considerer comme des humains" Annie Leonhart' emoji=None&gt;, &lt;Activity type=&lt;ActivityType.playing: 0&gt; name='Osmoze RP' url=None details='Osmoze |  V4  | Discord : discord.gg/wbQ9Kp5 ' application_id=733675027324469348 session_id=None emoji=None&gt;)</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>"j’aimerais que tout le monde...même les faibles...soient considerer comme des humains" Annie Leonhart</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
           <t>b4058052db07f892f1e225e7f9971a86</t>
@@ -15297,7 +15301,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -15363,7 +15367,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AC106" t="inlineStr"/>
@@ -15374,7 +15378,7 @@
       </c>
       <c r="AE106" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="AF106" t="b">
@@ -15477,7 +15481,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -15506,7 +15510,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr"/>
@@ -15517,7 +15521,7 @@
       </c>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>idle</t>
         </is>
       </c>
       <c r="AF107" t="b">
@@ -16252,10 +16256,14 @@
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>7a01846060522a68d85093a2401e5dba</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://cdn.discordapp.com/embed/avatars/3.png</t>
+          <t>https://cdn.discordapp.com/avatars/803322855290437703/7a01846060522a68d85093a2401e5dba.webp?size=1024</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -19052,11 +19060,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>(&lt;Game name='=help: quizbot.xyz'&gt;,)</t>
+          <t>(&lt;Game name='=help: 16576 servers'&gt;,)</t>
         </is>
       </c>
       <c r="C133">
-        <f>help: quizbot.xyz</f>
+        <f>help: 16576 servers</f>
         <v/>
       </c>
       <c r="D133" t="inlineStr">
